--- a/config_3.2/game_module_config.xlsx
+++ b/config_3.2/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1038">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4367,6 +4367,22 @@
   </si>
   <si>
     <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_3dby_xyxtg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_3DBY_XYXTGManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5011,13 +5027,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
+      <selection pane="bottomRight" activeCell="I343" sqref="I343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13670,6 +13686,32 @@
       </c>
       <c r="I341" s="48" t="s">
         <v>1033</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="15">
+        <v>341</v>
+      </c>
+      <c r="B342" s="41" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C342" s="50" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E342" s="49">
+        <v>1</v>
+      </c>
+      <c r="F342" s="49">
+        <v>1</v>
+      </c>
+      <c r="G342" s="49">
+        <v>1</v>
+      </c>
+      <c r="I342" s="48" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.2/game_module_config.xlsx
+++ b/config_3.2/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4350,10 +4350,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_008_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>玫瑰换好礼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4383,6 +4379,10 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_008_meigui</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5030,10 +5030,10 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I343" sqref="I343"/>
+      <selection pane="bottomRight" activeCell="A339" sqref="A339:XFD341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="H256" s="49"/>
       <c r="I256" s="48" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -13627,7 +13627,7 @@
         <v>1027</v>
       </c>
       <c r="C339" s="48" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E339" s="49">
         <v>1</v>
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="I339" s="48" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="49" customFormat="1">
@@ -13650,7 +13650,7 @@
         <v>1028</v>
       </c>
       <c r="C340" s="48" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E340" s="49">
         <v>1</v>
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="48" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="341" spans="1:9" s="49" customFormat="1">
@@ -13670,22 +13670,22 @@
         <v>340</v>
       </c>
       <c r="B341" s="47" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="C341" s="50" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E341" s="49">
+        <v>1</v>
+      </c>
+      <c r="F341" s="49">
+        <v>1</v>
+      </c>
+      <c r="G341" s="49">
+        <v>1</v>
+      </c>
+      <c r="I341" s="48" t="s">
         <v>1032</v>
-      </c>
-      <c r="E341" s="49">
-        <v>1</v>
-      </c>
-      <c r="F341" s="49">
-        <v>1</v>
-      </c>
-      <c r="G341" s="49">
-        <v>1</v>
-      </c>
-      <c r="I341" s="48" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13693,25 +13693,25 @@
         <v>341</v>
       </c>
       <c r="B342" s="41" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C342" s="50" t="s">
         <v>1034</v>
       </c>
-      <c r="C342" s="50" t="s">
+      <c r="D342" t="s">
         <v>1035</v>
       </c>
-      <c r="D342" t="s">
+      <c r="E342" s="49">
+        <v>1</v>
+      </c>
+      <c r="F342" s="49">
+        <v>1</v>
+      </c>
+      <c r="G342" s="49">
+        <v>1</v>
+      </c>
+      <c r="I342" s="48" t="s">
         <v>1036</v>
-      </c>
-      <c r="E342" s="49">
-        <v>1</v>
-      </c>
-      <c r="F342" s="49">
-        <v>1</v>
-      </c>
-      <c r="G342" s="49">
-        <v>1</v>
-      </c>
-      <c r="I342" s="48" t="s">
-        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.2/game_module_config.xlsx
+++ b/config_3.2/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1039">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4384,6 +4384,9 @@
   <si>
     <t>act_ty_by_drop_style/act_008_meigui</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
   </si>
 </sst>
 </file>
@@ -5033,7 +5036,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E338" sqref="E338"/>
+      <selection pane="bottomRight" activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13375,6 +13378,9 @@
       </c>
       <c r="G328" s="16">
         <v>1</v>
+      </c>
+      <c r="H328" s="16" t="s">
+        <v>1038</v>
       </c>
       <c r="I328" s="14" t="s">
         <v>964</v>

--- a/config_3.2/game_module_config.xlsx
+++ b/config_3.2/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5030,10 +5030,10 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A339" sqref="A339:XFD341"/>
+      <selection pane="bottomRight" activeCell="E338" sqref="E338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13607,7 +13607,7 @@
         <v>1020</v>
       </c>
       <c r="E338" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338" s="16">
         <v>1</v>

--- a/config_3.2/game_module_config.xlsx
+++ b/config_3.2/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1034">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4339,6 +4339,34 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_005_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_004_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_006_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_008_xiaotangyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4462,7 +4490,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4484,18 +4512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4525,19 +4541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4573,7 +4577,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4637,92 +4641,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4736,49 +4698,40 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5058,19 +5011,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C330" sqref="C330"/>
+      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -5081,10 +5034,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>981</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5555,7 +5508,7 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
@@ -6489,7 +6442,7 @@
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="41" t="s">
         <v>980</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -6515,7 +6468,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="41" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6622,7 +6575,7 @@
       <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="37" t="s">
         <v>978</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -6637,7 +6590,7 @@
       <c r="G60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="36" t="s">
         <v>979</v>
       </c>
     </row>
@@ -6979,29 +6932,29 @@
         <v>639</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="36" customFormat="1">
+    <row r="74" spans="1:9" s="32" customFormat="1">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="E74" s="35">
-        <v>0</v>
-      </c>
-      <c r="F74" s="36">
-        <v>0</v>
-      </c>
-      <c r="G74" s="36">
-        <v>0</v>
-      </c>
-      <c r="I74" s="37" t="s">
+      <c r="E74" s="31">
+        <v>0</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33" t="s">
         <v>641</v>
       </c>
     </row>
@@ -7031,29 +6984,29 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="28" customFormat="1">
+    <row r="76" spans="1:9" s="25" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="45">
-        <v>1</v>
-      </c>
-      <c r="F76" s="28">
-        <v>1</v>
-      </c>
-      <c r="G76" s="28">
-        <v>1</v>
-      </c>
-      <c r="I76" s="46" t="s">
+      <c r="E76" s="34">
+        <v>1</v>
+      </c>
+      <c r="F76" s="25">
+        <v>1</v>
+      </c>
+      <c r="G76" s="25">
+        <v>1</v>
+      </c>
+      <c r="I76" s="35" t="s">
         <v>960</v>
       </c>
     </row>
@@ -8171,7 +8124,7 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="64" t="s">
+      <c r="I119" s="44" t="s">
         <v>641</v>
       </c>
     </row>
@@ -9795,7 +9748,7 @@
       <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="56" t="s">
+      <c r="B183" s="41" t="s">
         <v>520</v>
       </c>
       <c r="C183" t="s">
@@ -9818,7 +9771,7 @@
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="56" t="s">
+      <c r="B184" s="41" t="s">
         <v>522</v>
       </c>
       <c r="C184" t="s">
@@ -9841,7 +9794,7 @@
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="56" t="s">
+      <c r="B185" s="41" t="s">
         <v>524</v>
       </c>
       <c r="C185" t="s">
@@ -9864,7 +9817,7 @@
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="56" t="s">
+      <c r="B186" s="41" t="s">
         <v>526</v>
       </c>
       <c r="C186" t="s">
@@ -9887,7 +9840,7 @@
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="56" t="s">
+      <c r="B187" s="41" t="s">
         <v>528</v>
       </c>
       <c r="C187" t="s">
@@ -9910,7 +9863,7 @@
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="56" t="s">
+      <c r="B188" s="41" t="s">
         <v>530</v>
       </c>
       <c r="C188" t="s">
@@ -9933,7 +9886,7 @@
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="56" t="s">
+      <c r="B189" s="41" t="s">
         <v>532</v>
       </c>
       <c r="C189" t="s">
@@ -9956,7 +9909,7 @@
       <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="56" t="s">
+      <c r="B190" s="41" t="s">
         <v>534</v>
       </c>
       <c r="C190" t="s">
@@ -9979,7 +9932,7 @@
       <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="56" t="s">
+      <c r="B191" s="41" t="s">
         <v>536</v>
       </c>
       <c r="C191" t="s">
@@ -10002,7 +9955,7 @@
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="56" t="s">
+      <c r="B192" s="41" t="s">
         <v>538</v>
       </c>
       <c r="C192" t="s">
@@ -10025,7 +9978,7 @@
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="56" t="s">
+      <c r="B193" s="41" t="s">
         <v>540</v>
       </c>
       <c r="C193" t="s">
@@ -10048,7 +10001,7 @@
       <c r="A194" s="15">
         <v>193</v>
       </c>
-      <c r="B194" s="56" t="s">
+      <c r="B194" s="41" t="s">
         <v>542</v>
       </c>
       <c r="C194" t="s">
@@ -10071,7 +10024,7 @@
       <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="56" t="s">
+      <c r="B195" s="41" t="s">
         <v>544</v>
       </c>
       <c r="C195" t="s">
@@ -10094,7 +10047,7 @@
       <c r="A196" s="15">
         <v>195</v>
       </c>
-      <c r="B196" s="56" t="s">
+      <c r="B196" s="41" t="s">
         <v>546</v>
       </c>
       <c r="C196" t="s">
@@ -10117,7 +10070,7 @@
       <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="56" t="s">
+      <c r="B197" s="41" t="s">
         <v>548</v>
       </c>
       <c r="C197" t="s">
@@ -10140,7 +10093,7 @@
       <c r="A198" s="15">
         <v>197</v>
       </c>
-      <c r="B198" s="56" t="s">
+      <c r="B198" s="41" t="s">
         <v>550</v>
       </c>
       <c r="C198" t="s">
@@ -10163,7 +10116,7 @@
       <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="56" t="s">
+      <c r="B199" s="41" t="s">
         <v>552</v>
       </c>
       <c r="C199" t="s">
@@ -10186,7 +10139,7 @@
       <c r="A200" s="15">
         <v>199</v>
       </c>
-      <c r="B200" s="56" t="s">
+      <c r="B200" s="41" t="s">
         <v>554</v>
       </c>
       <c r="C200" t="s">
@@ -10209,7 +10162,7 @@
       <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="56" t="s">
+      <c r="B201" s="41" t="s">
         <v>556</v>
       </c>
       <c r="C201" t="s">
@@ -10232,7 +10185,7 @@
       <c r="A202" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="56" t="s">
+      <c r="B202" s="41" t="s">
         <v>558</v>
       </c>
       <c r="C202" t="s">
@@ -10255,7 +10208,7 @@
       <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="56" t="s">
+      <c r="B203" s="41" t="s">
         <v>560</v>
       </c>
       <c r="C203" t="s">
@@ -10278,7 +10231,7 @@
       <c r="A204" s="15">
         <v>203</v>
       </c>
-      <c r="B204" s="56" t="s">
+      <c r="B204" s="41" t="s">
         <v>604</v>
       </c>
       <c r="C204" t="s">
@@ -10304,7 +10257,7 @@
       <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="56" t="s">
+      <c r="B205" s="41" t="s">
         <v>606</v>
       </c>
       <c r="C205" t="s">
@@ -10330,7 +10283,7 @@
       <c r="A206" s="15">
         <v>205</v>
       </c>
-      <c r="B206" s="56" t="s">
+      <c r="B206" s="41" t="s">
         <v>608</v>
       </c>
       <c r="C206" t="s">
@@ -10356,7 +10309,7 @@
       <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="56" t="s">
+      <c r="B207" s="41" t="s">
         <v>565</v>
       </c>
       <c r="C207" t="s">
@@ -10379,7 +10332,7 @@
       <c r="A208" s="15">
         <v>207</v>
       </c>
-      <c r="B208" s="56" t="s">
+      <c r="B208" s="41" t="s">
         <v>567</v>
       </c>
       <c r="C208" t="s">
@@ -10402,7 +10355,7 @@
       <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="56" t="s">
+      <c r="B209" s="41" t="s">
         <v>569</v>
       </c>
       <c r="C209" t="s">
@@ -10425,7 +10378,7 @@
       <c r="A210" s="15">
         <v>209</v>
       </c>
-      <c r="B210" s="56" t="s">
+      <c r="B210" s="41" t="s">
         <v>571</v>
       </c>
       <c r="C210" t="s">
@@ -10448,7 +10401,7 @@
       <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="56" t="s">
+      <c r="B211" s="41" t="s">
         <v>573</v>
       </c>
       <c r="C211" t="s">
@@ -10471,7 +10424,7 @@
       <c r="A212" s="15">
         <v>211</v>
       </c>
-      <c r="B212" s="56" t="s">
+      <c r="B212" s="41" t="s">
         <v>575</v>
       </c>
       <c r="C212" t="s">
@@ -10494,7 +10447,7 @@
       <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="56" t="s">
+      <c r="B213" s="41" t="s">
         <v>577</v>
       </c>
       <c r="C213" t="s">
@@ -10517,7 +10470,7 @@
       <c r="A214" s="15">
         <v>213</v>
       </c>
-      <c r="B214" s="56" t="s">
+      <c r="B214" s="41" t="s">
         <v>579</v>
       </c>
       <c r="C214" t="s">
@@ -10540,7 +10493,7 @@
       <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="56" t="s">
+      <c r="B215" s="41" t="s">
         <v>581</v>
       </c>
       <c r="C215" t="s">
@@ -10563,7 +10516,7 @@
       <c r="A216" s="15">
         <v>215</v>
       </c>
-      <c r="B216" s="56" t="s">
+      <c r="B216" s="41" t="s">
         <v>583</v>
       </c>
       <c r="C216" t="s">
@@ -10586,7 +10539,7 @@
       <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="56" t="s">
+      <c r="B217" s="41" t="s">
         <v>585</v>
       </c>
       <c r="C217" t="s">
@@ -10609,7 +10562,7 @@
       <c r="A218" s="15">
         <v>217</v>
       </c>
-      <c r="B218" s="56" t="s">
+      <c r="B218" s="41" t="s">
         <v>587</v>
       </c>
       <c r="C218" t="s">
@@ -10632,7 +10585,7 @@
       <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="56" t="s">
+      <c r="B219" s="41" t="s">
         <v>589</v>
       </c>
       <c r="C219" t="s">
@@ -10655,7 +10608,7 @@
       <c r="A220" s="15">
         <v>219</v>
       </c>
-      <c r="B220" s="56" t="s">
+      <c r="B220" s="41" t="s">
         <v>591</v>
       </c>
       <c r="C220" t="s">
@@ -10678,7 +10631,7 @@
       <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="56" t="s">
+      <c r="B221" s="41" t="s">
         <v>593</v>
       </c>
       <c r="C221" t="s">
@@ -10701,7 +10654,7 @@
       <c r="A222" s="15">
         <v>221</v>
       </c>
-      <c r="B222" s="56" t="s">
+      <c r="B222" s="41" t="s">
         <v>595</v>
       </c>
       <c r="C222" t="s">
@@ -10724,7 +10677,7 @@
       <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="56" t="s">
+      <c r="B223" s="41" t="s">
         <v>597</v>
       </c>
       <c r="C223" t="s">
@@ -10747,7 +10700,7 @@
       <c r="A224" s="15">
         <v>223</v>
       </c>
-      <c r="B224" s="56" t="s">
+      <c r="B224" s="41" t="s">
         <v>599</v>
       </c>
       <c r="C224" t="s">
@@ -10770,7 +10723,7 @@
       <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="56" t="s">
+      <c r="B225" s="41" t="s">
         <v>647</v>
       </c>
       <c r="C225" t="s">
@@ -10793,7 +10746,7 @@
       <c r="A226" s="15">
         <v>225</v>
       </c>
-      <c r="B226" s="56" t="s">
+      <c r="B226" s="41" t="s">
         <v>613</v>
       </c>
       <c r="C226" s="8" t="s">
@@ -10816,7 +10769,7 @@
       <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="56" t="s">
+      <c r="B227" s="41" t="s">
         <v>614</v>
       </c>
       <c r="C227" s="8" t="s">
@@ -10839,7 +10792,7 @@
       <c r="A228" s="15">
         <v>227</v>
       </c>
-      <c r="B228" s="56" t="s">
+      <c r="B228" s="41" t="s">
         <v>617</v>
       </c>
       <c r="C228" s="8" t="s">
@@ -10862,7 +10815,7 @@
       <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="56" t="s">
+      <c r="B229" s="41" t="s">
         <v>620</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -10885,7 +10838,7 @@
       <c r="A230" s="15">
         <v>229</v>
       </c>
-      <c r="B230" s="56" t="s">
+      <c r="B230" s="41" t="s">
         <v>626</v>
       </c>
       <c r="C230" s="8" t="s">
@@ -10908,7 +10861,7 @@
       <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="56" t="s">
+      <c r="B231" s="41" t="s">
         <v>624</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -10931,7 +10884,7 @@
       <c r="A232" s="15">
         <v>231</v>
       </c>
-      <c r="B232" s="56" t="s">
+      <c r="B232" s="41" t="s">
         <v>634</v>
       </c>
       <c r="C232" s="8" t="s">
@@ -10954,7 +10907,7 @@
       <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="56" t="s">
+      <c r="B233" s="41" t="s">
         <v>648</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -10977,7 +10930,7 @@
       <c r="A234" s="15">
         <v>233</v>
       </c>
-      <c r="B234" s="56" t="s">
+      <c r="B234" s="41" t="s">
         <v>655</v>
       </c>
       <c r="C234" s="8" t="s">
@@ -11000,7 +10953,7 @@
       <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="56" t="s">
+      <c r="B235" s="41" t="s">
         <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
@@ -11026,7 +10979,7 @@
       <c r="A236" s="15">
         <v>235</v>
       </c>
-      <c r="B236" s="56" t="s">
+      <c r="B236" s="41" t="s">
         <v>661</v>
       </c>
       <c r="C236" s="8" t="s">
@@ -11052,7 +11005,7 @@
       <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="56" t="s">
+      <c r="B237" s="41" t="s">
         <v>664</v>
       </c>
       <c r="C237" s="8" t="s">
@@ -11078,7 +11031,7 @@
       <c r="A238" s="15">
         <v>237</v>
       </c>
-      <c r="B238" s="56" t="s">
+      <c r="B238" s="41" t="s">
         <v>668</v>
       </c>
       <c r="C238" s="8" t="s">
@@ -11104,7 +11057,7 @@
       <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="56" t="s">
+      <c r="B239" s="41" t="s">
         <v>675</v>
       </c>
       <c r="C239" s="8" t="s">
@@ -11130,7 +11083,7 @@
       <c r="A240" s="15">
         <v>239</v>
       </c>
-      <c r="B240" s="56" t="s">
+      <c r="B240" s="41" t="s">
         <v>677</v>
       </c>
       <c r="C240" s="8" t="s">
@@ -11156,7 +11109,7 @@
       <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="56" t="s">
+      <c r="B241" s="41" t="s">
         <v>681</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -11182,7 +11135,7 @@
       <c r="A242" s="15">
         <v>241</v>
       </c>
-      <c r="B242" s="56" t="s">
+      <c r="B242" s="41" t="s">
         <v>689</v>
       </c>
       <c r="C242" s="8" t="s">
@@ -11208,7 +11161,7 @@
       <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="56" t="s">
+      <c r="B243" s="41" t="s">
         <v>693</v>
       </c>
       <c r="C243" s="8" t="s">
@@ -11234,7 +11187,7 @@
       <c r="A244" s="15">
         <v>243</v>
       </c>
-      <c r="B244" s="56" t="s">
+      <c r="B244" s="41" t="s">
         <v>697</v>
       </c>
       <c r="C244" s="8" t="s">
@@ -11260,7 +11213,7 @@
       <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="56" t="s">
+      <c r="B245" s="41" t="s">
         <v>698</v>
       </c>
       <c r="C245" s="8" t="s">
@@ -11286,7 +11239,7 @@
       <c r="A246" s="15">
         <v>245</v>
       </c>
-      <c r="B246" s="56" t="s">
+      <c r="B246" s="41" t="s">
         <v>699</v>
       </c>
       <c r="C246" s="8" t="s">
@@ -11312,7 +11265,7 @@
       <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="56" t="s">
+      <c r="B247" s="41" t="s">
         <v>710</v>
       </c>
       <c r="C247" s="8" t="s">
@@ -11338,7 +11291,7 @@
       <c r="A248" s="15">
         <v>247</v>
       </c>
-      <c r="B248" s="56" t="s">
+      <c r="B248" s="41" t="s">
         <v>714</v>
       </c>
       <c r="C248" s="8" t="s">
@@ -11364,7 +11317,7 @@
       <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="56" t="s">
+      <c r="B249" s="41" t="s">
         <v>717</v>
       </c>
       <c r="C249" s="8" t="s">
@@ -11390,7 +11343,7 @@
       <c r="A250" s="15">
         <v>249</v>
       </c>
-      <c r="B250" s="56" t="s">
+      <c r="B250" s="41" t="s">
         <v>722</v>
       </c>
       <c r="C250" s="8" t="s">
@@ -11416,7 +11369,7 @@
       <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="56" t="s">
+      <c r="B251" s="41" t="s">
         <v>725</v>
       </c>
       <c r="C251" s="8" t="s">
@@ -11442,7 +11395,7 @@
       <c r="A252" s="15">
         <v>251</v>
       </c>
-      <c r="B252" s="56" t="s">
+      <c r="B252" s="41" t="s">
         <v>730</v>
       </c>
       <c r="C252" t="s">
@@ -11468,26 +11421,26 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="57" t="s">
+      <c r="B253" s="42" t="s">
         <v>952</v>
       </c>
-      <c r="C253" s="28" t="s">
+      <c r="C253" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="D253" s="27" t="s">
+      <c r="D253" s="24" t="s">
         <v>953</v>
       </c>
-      <c r="E253" s="28">
-        <v>1</v>
-      </c>
-      <c r="F253" s="28">
-        <v>1</v>
-      </c>
-      <c r="G253" s="28">
-        <v>1</v>
-      </c>
-      <c r="H253" s="28"/>
-      <c r="I253" s="27" t="s">
+      <c r="E253" s="25">
+        <v>1</v>
+      </c>
+      <c r="F253" s="25">
+        <v>1</v>
+      </c>
+      <c r="G253" s="25">
+        <v>1</v>
+      </c>
+      <c r="H253" s="25"/>
+      <c r="I253" s="24" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11495,7 +11448,7 @@
       <c r="A254" s="15">
         <v>253</v>
       </c>
-      <c r="B254" s="56" t="s">
+      <c r="B254" s="41" t="s">
         <v>735</v>
       </c>
       <c r="C254" s="8" t="s">
@@ -11521,7 +11474,7 @@
       <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="56" t="s">
+      <c r="B255" s="41" t="s">
         <v>739</v>
       </c>
       <c r="C255" s="8" t="s">
@@ -11543,37 +11496,38 @@
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="25" customFormat="1">
+    <row r="256" spans="1:9" s="22" customFormat="1">
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="58" t="s">
+      <c r="B256" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C256" s="24" t="s">
+      <c r="C256" s="48" t="s">
         <v>915</v>
       </c>
-      <c r="D256" s="24" t="s">
+      <c r="D256" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="E256" s="25">
-        <v>1</v>
-      </c>
-      <c r="F256" s="25">
-        <v>1</v>
-      </c>
-      <c r="G256" s="25">
-        <v>1</v>
-      </c>
-      <c r="I256" s="21" t="s">
-        <v>916</v>
+      <c r="E256" s="49">
+        <v>0</v>
+      </c>
+      <c r="F256" s="49">
+        <v>0</v>
+      </c>
+      <c r="G256" s="49">
+        <v>0</v>
+      </c>
+      <c r="H256" s="49"/>
+      <c r="I256" s="48" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="26" t="s">
         <v>748</v>
       </c>
       <c r="C257" s="14" t="s">
@@ -11599,7 +11553,7 @@
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="26" t="s">
         <v>749</v>
       </c>
       <c r="C258" s="14" t="s">
@@ -11625,7 +11579,7 @@
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="26" t="s">
         <v>752</v>
       </c>
       <c r="C259" s="14" t="s">
@@ -11651,7 +11605,7 @@
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="26" t="s">
         <v>756</v>
       </c>
       <c r="C260" s="14" t="s">
@@ -11677,7 +11631,7 @@
       <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="56" t="s">
+      <c r="B261" s="41" t="s">
         <v>760</v>
       </c>
       <c r="C261" s="8" t="s">
@@ -11703,7 +11657,7 @@
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="26" t="s">
         <v>764</v>
       </c>
       <c r="C262" s="8" t="s">
@@ -11729,7 +11683,7 @@
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="26" t="s">
         <v>767</v>
       </c>
       <c r="C263" s="14" t="s">
@@ -11755,7 +11709,7 @@
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="26" t="s">
         <v>771</v>
       </c>
       <c r="C264" s="14" t="s">
@@ -11781,7 +11735,7 @@
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="26" t="s">
         <v>774</v>
       </c>
       <c r="C265" s="14" t="s">
@@ -11807,7 +11761,7 @@
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="26" t="s">
         <v>778</v>
       </c>
       <c r="C266" s="14" t="s">
@@ -11833,7 +11787,7 @@
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="26" t="s">
         <v>782</v>
       </c>
       <c r="C267" s="14" t="s">
@@ -11859,7 +11813,7 @@
       <c r="A268" s="15">
         <v>267</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="26" t="s">
         <v>788</v>
       </c>
       <c r="C268" s="14" t="s">
@@ -11885,7 +11839,7 @@
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="26" t="s">
         <v>789</v>
       </c>
       <c r="C269" s="14" t="s">
@@ -11912,7 +11866,7 @@
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="26" t="s">
         <v>791</v>
       </c>
       <c r="C270" s="14" t="s">
@@ -11939,7 +11893,7 @@
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="26" t="s">
         <v>795</v>
       </c>
       <c r="C271" s="14" t="s">
@@ -11966,7 +11920,7 @@
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="26" t="s">
         <v>799</v>
       </c>
       <c r="C272" s="14" t="s">
@@ -11993,7 +11947,7 @@
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="26" t="s">
         <v>803</v>
       </c>
       <c r="C273" s="14" t="s">
@@ -12020,7 +11974,7 @@
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="30" t="s">
+      <c r="B274" s="26" t="s">
         <v>838</v>
       </c>
       <c r="C274" s="14" t="s">
@@ -12047,7 +12001,7 @@
       <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="26" t="s">
         <v>810</v>
       </c>
       <c r="C275" s="14" t="s">
@@ -12066,30 +12020,30 @@
         <v>1</v>
       </c>
       <c r="H275" s="16"/>
-      <c r="I275" s="26" t="s">
+      <c r="I275" s="23" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="15">
+    <row r="276" spans="1:9" s="49" customFormat="1">
+      <c r="A276" s="46">
         <v>275</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="51" t="s">
         <v>812</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="C276" s="48" t="s">
         <v>813</v>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="I276" s="18" t="s">
+      <c r="E276" s="49">
+        <v>1</v>
+      </c>
+      <c r="F276" s="49">
+        <v>1</v>
+      </c>
+      <c r="G276" s="49">
+        <v>1</v>
+      </c>
+      <c r="I276" s="50" t="s">
         <v>814</v>
       </c>
     </row>
@@ -12097,13 +12051,13 @@
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="30" t="s">
+      <c r="B277" s="26" t="s">
         <v>815</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="D277" s="30" t="s">
+      <c r="D277" s="26" t="s">
         <v>816</v>
       </c>
       <c r="E277" s="14">
@@ -12124,7 +12078,7 @@
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="26" t="s">
         <v>825</v>
       </c>
       <c r="C278" s="14" t="s">
@@ -12150,7 +12104,7 @@
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="26" t="s">
         <v>820</v>
       </c>
       <c r="C279" s="14" t="s">
@@ -12173,7 +12127,7 @@
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="26" t="s">
         <v>824</v>
       </c>
       <c r="C280" s="14" t="s">
@@ -12199,7 +12153,7 @@
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="30" t="s">
+      <c r="B281" s="26" t="s">
         <v>826</v>
       </c>
       <c r="C281" s="14" t="s">
@@ -12225,7 +12179,7 @@
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="30" t="s">
+      <c r="B282" s="26" t="s">
         <v>836</v>
       </c>
       <c r="C282" s="14" t="s">
@@ -12247,55 +12201,55 @@
         <v>831</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="33" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" spans="1:9" s="29" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="32" t="s">
+      <c r="B283" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="C283" s="31" t="s">
+      <c r="C283" s="27" t="s">
         <v>833</v>
       </c>
-      <c r="D283" s="32" t="s">
+      <c r="D283" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="E283" s="33">
-        <v>1</v>
-      </c>
-      <c r="F283" s="33">
-        <v>1</v>
-      </c>
-      <c r="G283" s="33">
-        <v>1</v>
-      </c>
-      <c r="I283" s="34" t="s">
+      <c r="E283" s="29">
+        <v>1</v>
+      </c>
+      <c r="F283" s="29">
+        <v>1</v>
+      </c>
+      <c r="G283" s="29">
+        <v>1</v>
+      </c>
+      <c r="I283" s="30" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="33" customFormat="1">
+    <row r="284" spans="1:9" s="29" customFormat="1">
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="32" t="s">
+      <c r="B284" s="28" t="s">
         <v>840</v>
       </c>
-      <c r="C284" s="31" t="s">
+      <c r="C284" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="D284" s="32" t="s">
+      <c r="D284" s="28" t="s">
         <v>839</v>
       </c>
-      <c r="E284" s="33">
-        <v>1</v>
-      </c>
-      <c r="F284" s="33">
-        <v>1</v>
-      </c>
-      <c r="G284" s="33">
-        <v>1</v>
-      </c>
-      <c r="I284" s="34" t="s">
+      <c r="E284" s="29">
+        <v>1</v>
+      </c>
+      <c r="F284" s="29">
+        <v>1</v>
+      </c>
+      <c r="G284" s="29">
+        <v>1</v>
+      </c>
+      <c r="I284" s="30" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12303,7 +12257,7 @@
       <c r="A285" s="15">
         <v>284</v>
       </c>
-      <c r="B285" s="30" t="s">
+      <c r="B285" s="26" t="s">
         <v>843</v>
       </c>
       <c r="C285" s="14" t="s">
@@ -12325,264 +12279,263 @@
         <v>846</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="33" customFormat="1">
+    <row r="286" spans="1:9" s="29" customFormat="1">
       <c r="A286" s="15">
         <v>285</v>
       </c>
-      <c r="B286" s="59" t="s">
+      <c r="B286" s="43" t="s">
         <v>848</v>
       </c>
-      <c r="C286" s="31" t="s">
+      <c r="C286" s="27" t="s">
         <v>849</v>
       </c>
-      <c r="D286" s="32" t="s">
+      <c r="D286" s="28" t="s">
         <v>847</v>
       </c>
-      <c r="E286" s="33">
-        <v>1</v>
-      </c>
-      <c r="F286" s="33">
-        <v>1</v>
-      </c>
-      <c r="G286" s="33">
-        <v>1</v>
-      </c>
-      <c r="I286" s="34" t="s">
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="33" customFormat="1">
+    <row r="287" spans="1:9" s="29" customFormat="1">
       <c r="A287" s="15">
         <v>286</v>
       </c>
-      <c r="B287" s="59" t="s">
+      <c r="B287" s="43" t="s">
         <v>850</v>
       </c>
-      <c r="C287" s="31" t="s">
+      <c r="C287" s="27" t="s">
         <v>851</v>
       </c>
-      <c r="D287" s="32" t="s">
+      <c r="D287" s="28" t="s">
         <v>852</v>
       </c>
-      <c r="E287" s="33">
-        <v>1</v>
-      </c>
-      <c r="F287" s="33">
-        <v>1</v>
-      </c>
-      <c r="G287" s="33">
-        <v>1</v>
-      </c>
-      <c r="I287" s="34" t="s">
+      <c r="E287" s="29">
+        <v>1</v>
+      </c>
+      <c r="F287" s="29">
+        <v>1</v>
+      </c>
+      <c r="G287" s="29">
+        <v>1</v>
+      </c>
+      <c r="I287" s="30" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="20" customFormat="1">
+    <row r="288" spans="1:9" s="16" customFormat="1">
       <c r="A288" s="15">
         <v>287</v>
       </c>
-      <c r="B288" s="57" t="s">
+      <c r="B288" s="26" t="s">
         <v>854</v>
       </c>
-      <c r="C288" s="27" t="s">
+      <c r="C288" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="D288" s="27" t="s">
+      <c r="D288" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="E288" s="28">
-        <v>1</v>
-      </c>
-      <c r="F288" s="28">
-        <v>1</v>
-      </c>
-      <c r="G288" s="28">
-        <v>1</v>
-      </c>
-      <c r="H288" s="28"/>
-      <c r="I288" s="27" t="s">
+      <c r="E288" s="16">
+        <v>0</v>
+      </c>
+      <c r="F288" s="16">
+        <v>0</v>
+      </c>
+      <c r="G288" s="16">
+        <v>0</v>
+      </c>
+      <c r="I288" s="14" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="33" customFormat="1">
+    <row r="289" spans="1:9" s="29" customFormat="1">
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="59" t="s">
+      <c r="B289" s="43" t="s">
         <v>857</v>
       </c>
-      <c r="C289" s="31" t="s">
+      <c r="C289" s="27" t="s">
         <v>858</v>
       </c>
-      <c r="D289" s="32" t="s">
+      <c r="D289" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="E289" s="33">
-        <v>1</v>
-      </c>
-      <c r="F289" s="33">
-        <v>1</v>
-      </c>
-      <c r="G289" s="33">
-        <v>1</v>
-      </c>
-      <c r="I289" s="34" t="s">
+      <c r="E289" s="29">
+        <v>1</v>
+      </c>
+      <c r="F289" s="29">
+        <v>1</v>
+      </c>
+      <c r="G289" s="29">
+        <v>1</v>
+      </c>
+      <c r="I289" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1">
+    <row r="290" spans="1:9" s="29" customFormat="1">
       <c r="A290" s="15">
         <v>289</v>
       </c>
-      <c r="B290" s="32" t="s">
+      <c r="B290" s="28" t="s">
         <v>861</v>
       </c>
-      <c r="C290" s="31" t="s">
+      <c r="C290" s="27" t="s">
         <v>862</v>
       </c>
-      <c r="D290" s="32" t="s">
+      <c r="D290" s="28" t="s">
         <v>863</v>
       </c>
-      <c r="E290" s="33">
-        <v>1</v>
-      </c>
-      <c r="F290" s="33">
-        <v>1</v>
-      </c>
-      <c r="G290" s="33">
-        <v>1</v>
-      </c>
-      <c r="I290" s="34" t="s">
+      <c r="E290" s="29">
+        <v>1</v>
+      </c>
+      <c r="F290" s="29">
+        <v>1</v>
+      </c>
+      <c r="G290" s="29">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="33" customFormat="1">
+    <row r="291" spans="1:9" s="29" customFormat="1">
       <c r="A291" s="15">
         <v>290</v>
       </c>
-      <c r="B291" s="32" t="s">
+      <c r="B291" s="28" t="s">
         <v>865</v>
       </c>
-      <c r="C291" s="31" t="s">
+      <c r="C291" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="D291" s="32" t="s">
+      <c r="D291" s="28" t="s">
         <v>867</v>
       </c>
-      <c r="E291" s="33">
-        <v>1</v>
-      </c>
-      <c r="F291" s="33">
-        <v>1</v>
-      </c>
-      <c r="G291" s="33">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
+      <c r="E291" s="29">
+        <v>1</v>
+      </c>
+      <c r="F291" s="29">
+        <v>1</v>
+      </c>
+      <c r="G291" s="29">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="33" customFormat="1">
+    <row r="292" spans="1:9" s="29" customFormat="1">
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="32" t="s">
+      <c r="B292" s="28" t="s">
         <v>868</v>
       </c>
-      <c r="C292" s="31" t="s">
+      <c r="C292" s="27" t="s">
         <v>873</v>
       </c>
-      <c r="D292" s="32" t="s">
+      <c r="D292" s="28" t="s">
         <v>870</v>
       </c>
-      <c r="E292" s="33">
-        <v>1</v>
-      </c>
-      <c r="F292" s="33">
-        <v>1</v>
-      </c>
-      <c r="G292" s="33">
-        <v>1</v>
-      </c>
-      <c r="I292" s="34" t="s">
+      <c r="E292" s="29">
+        <v>1</v>
+      </c>
+      <c r="F292" s="29">
+        <v>1</v>
+      </c>
+      <c r="G292" s="29">
+        <v>1</v>
+      </c>
+      <c r="I292" s="30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="33" customFormat="1">
+    <row r="293" spans="1:9" s="29" customFormat="1">
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="32" t="s">
+      <c r="B293" s="28" t="s">
         <v>869</v>
       </c>
-      <c r="C293" s="31" t="s">
+      <c r="C293" s="27" t="s">
         <v>874</v>
       </c>
-      <c r="D293" s="32" t="s">
+      <c r="D293" s="28" t="s">
         <v>871</v>
       </c>
-      <c r="E293" s="33">
-        <v>1</v>
-      </c>
-      <c r="F293" s="33">
-        <v>1</v>
-      </c>
-      <c r="G293" s="33">
-        <v>1</v>
-      </c>
-      <c r="I293" s="34" t="s">
+      <c r="E293" s="29">
+        <v>1</v>
+      </c>
+      <c r="F293" s="29">
+        <v>1</v>
+      </c>
+      <c r="G293" s="29">
+        <v>1</v>
+      </c>
+      <c r="I293" s="30" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="33" customFormat="1">
+    <row r="294" spans="1:9" s="29" customFormat="1">
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="32" t="s">
+      <c r="B294" s="28" t="s">
         <v>875</v>
       </c>
-      <c r="C294" s="31" t="s">
+      <c r="C294" s="27" t="s">
         <v>876</v>
       </c>
-      <c r="D294" s="32" t="s">
+      <c r="D294" s="28" t="s">
         <v>877</v>
       </c>
-      <c r="E294" s="33">
-        <v>1</v>
-      </c>
-      <c r="F294" s="33">
-        <v>1</v>
-      </c>
-      <c r="G294" s="33">
-        <v>1</v>
-      </c>
-      <c r="I294" s="34" t="s">
+      <c r="E294" s="29">
+        <v>1</v>
+      </c>
+      <c r="F294" s="29">
+        <v>1</v>
+      </c>
+      <c r="G294" s="29">
+        <v>1</v>
+      </c>
+      <c r="I294" s="30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="33" customFormat="1">
+    <row r="295" spans="1:9" s="29" customFormat="1">
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="32" t="s">
+      <c r="B295" s="28" t="s">
         <v>878</v>
       </c>
-      <c r="C295" s="31" t="s">
+      <c r="C295" s="27" t="s">
         <v>879</v>
       </c>
-      <c r="D295" s="32" t="s">
+      <c r="D295" s="28" t="s">
         <v>880</v>
       </c>
-      <c r="E295" s="33">
-        <v>1</v>
-      </c>
-      <c r="F295" s="33">
-        <v>1</v>
-      </c>
-      <c r="G295" s="33">
-        <v>1</v>
-      </c>
-      <c r="I295" s="34" t="s">
+      <c r="E295" s="29">
+        <v>1</v>
+      </c>
+      <c r="F295" s="29">
+        <v>1</v>
+      </c>
+      <c r="G295" s="29">
+        <v>1</v>
+      </c>
+      <c r="I295" s="30" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12664,33 +12617,33 @@
         <v>895</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="33" customFormat="1">
+    <row r="299" spans="1:9" s="16" customFormat="1">
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="32" t="s">
+      <c r="B299" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="C299" s="31" t="s">
+      <c r="C299" s="14" t="s">
         <v>891</v>
       </c>
-      <c r="D299" s="32" t="s">
+      <c r="D299" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="E299" s="33">
-        <v>1</v>
-      </c>
-      <c r="F299" s="33">
-        <v>1</v>
-      </c>
-      <c r="G299" s="33">
-        <v>1</v>
-      </c>
-      <c r="I299" s="34" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="22" customFormat="1">
+    <row r="300" spans="1:9" s="16" customFormat="1">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12712,12 +12665,11 @@
       <c r="G300" s="16">
         <v>0</v>
       </c>
-      <c r="H300" s="16"/>
       <c r="I300" s="18" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="22" customFormat="1">
+    <row r="301" spans="1:9" s="16" customFormat="1">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12739,12 +12691,11 @@
       <c r="G301" s="16">
         <v>0</v>
       </c>
-      <c r="H301" s="16"/>
       <c r="I301" s="18" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="22" customFormat="1">
+    <row r="302" spans="1:9" s="16" customFormat="1">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12766,123 +12717,119 @@
       <c r="G302" s="16">
         <v>0</v>
       </c>
-      <c r="H302" s="16"/>
       <c r="I302" s="18" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="33" customFormat="1">
+    <row r="303" spans="1:9" s="16" customFormat="1">
       <c r="A303" s="15">
         <v>302</v>
       </c>
-      <c r="B303" s="32" t="s">
+      <c r="B303" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="C303" s="31" t="s">
+      <c r="C303" s="14" t="s">
         <v>910</v>
       </c>
-      <c r="D303" s="32" t="s">
+      <c r="D303" s="17" t="s">
         <v>907</v>
       </c>
-      <c r="E303" s="33">
-        <v>1</v>
-      </c>
-      <c r="F303" s="33">
-        <v>1</v>
-      </c>
-      <c r="G303" s="33">
-        <v>1</v>
-      </c>
-      <c r="I303" s="34" t="s">
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="20" customFormat="1">
+    <row r="304" spans="1:9" s="16" customFormat="1">
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="17" t="s">
         <v>972</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="17" t="s">
         <v>957</v>
       </c>
-      <c r="E304" s="43">
-        <v>1</v>
-      </c>
-      <c r="F304" s="43">
-        <v>1</v>
-      </c>
-      <c r="G304" s="43">
-        <v>1</v>
-      </c>
-      <c r="H304" s="43"/>
-      <c r="I304" s="42" t="s">
+      <c r="E304" s="16">
+        <v>1</v>
+      </c>
+      <c r="F304" s="16">
+        <v>1</v>
+      </c>
+      <c r="G304" s="16">
+        <v>1</v>
+      </c>
+      <c r="I304" s="14" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" s="16" customFormat="1">
       <c r="A305" s="15">
         <v>304</v>
       </c>
-      <c r="B305" s="41" t="s">
+      <c r="B305" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="C305" s="42" t="s">
+      <c r="C305" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="D305" s="41" t="s">
+      <c r="D305" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="E305" s="43">
-        <v>1</v>
-      </c>
-      <c r="F305" s="43">
-        <v>1</v>
-      </c>
-      <c r="G305" s="43">
-        <v>1</v>
-      </c>
-      <c r="H305" s="43"/>
-      <c r="I305" s="42" t="s">
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" s="16" customFormat="1">
       <c r="A306" s="15">
         <v>305</v>
       </c>
-      <c r="B306" s="41" t="s">
+      <c r="B306" s="17" t="s">
         <v>954</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="C306" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="D306" s="41" t="s">
+      <c r="D306" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="E306" s="43">
-        <v>1</v>
-      </c>
-      <c r="F306" s="43">
-        <v>1</v>
-      </c>
-      <c r="G306" s="43">
-        <v>1</v>
-      </c>
-      <c r="H306" s="43"/>
-      <c r="I306" s="44" t="s">
+      <c r="E306" s="16">
+        <v>1</v>
+      </c>
+      <c r="F306" s="16">
+        <v>1</v>
+      </c>
+      <c r="G306" s="16">
+        <v>1</v>
+      </c>
+      <c r="I306" s="18" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" s="16" customFormat="1">
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B307" s="26" t="s">
         <v>913</v>
       </c>
       <c r="C307" s="16" t="s">
@@ -12900,12 +12847,11 @@
       <c r="G307" s="16">
         <v>1</v>
       </c>
-      <c r="H307" s="16"/>
       <c r="I307" s="18" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" s="16" customFormat="1">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -12927,38 +12873,37 @@
       <c r="G308" s="16">
         <v>1</v>
       </c>
-      <c r="H308" s="16"/>
       <c r="I308" s="14" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="33" customFormat="1">
+    <row r="309" spans="1:9" s="16" customFormat="1">
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="32" t="s">
+      <c r="B309" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="C309" s="31" t="s">
+      <c r="C309" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="D309" s="32" t="s">
+      <c r="D309" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="E309" s="33">
-        <v>1</v>
-      </c>
-      <c r="F309" s="33">
-        <v>1</v>
-      </c>
-      <c r="G309" s="33">
-        <v>1</v>
-      </c>
-      <c r="I309" s="31" t="s">
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" s="16" customFormat="1">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -12980,12 +12925,11 @@
       <c r="G310" s="16">
         <v>1</v>
       </c>
-      <c r="H310" s="16"/>
       <c r="I310" s="14" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="2" customFormat="1">
+    <row r="311" spans="1:9" s="49" customFormat="1">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -12998,20 +12942,20 @@
       <c r="D311" s="47" t="s">
         <v>929</v>
       </c>
-      <c r="E311" s="2">
-        <v>1</v>
-      </c>
-      <c r="F311" s="2">
-        <v>1</v>
-      </c>
-      <c r="G311" s="2">
+      <c r="E311" s="49">
+        <v>1</v>
+      </c>
+      <c r="F311" s="49">
+        <v>1</v>
+      </c>
+      <c r="G311" s="49">
         <v>1</v>
       </c>
       <c r="I311" s="48" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" s="16" customFormat="1">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13034,82 +12978,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="2" customFormat="1" ht="17.25">
+    <row r="313" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="60" t="s">
+      <c r="B313" s="39" t="s">
         <v>938</v>
       </c>
-      <c r="C313" s="48" t="s">
+      <c r="C313" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="D313" s="47" t="s">
+      <c r="D313" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="E313" s="2">
-        <v>1</v>
-      </c>
-      <c r="F313" s="2">
-        <v>1</v>
-      </c>
-      <c r="G313" s="2">
-        <v>1</v>
-      </c>
-      <c r="I313" s="48" t="s">
+      <c r="E313" s="16">
+        <v>0</v>
+      </c>
+      <c r="F313" s="16">
+        <v>1</v>
+      </c>
+      <c r="G313" s="16">
+        <v>1</v>
+      </c>
+      <c r="I313" s="14" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="17.25">
+    <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="54" t="s">
+      <c r="B314" s="39" t="s">
         <v>939</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="D314" s="29" t="s">
+      <c r="D314" s="38" t="s">
         <v>946</v>
       </c>
       <c r="E314" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F314" s="16">
         <v>1</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="16">
         <v>1</v>
       </c>
       <c r="I314" s="18" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" s="16" customFormat="1">
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="47" t="s">
+      <c r="B315" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="C315" s="48" t="s">
+      <c r="C315" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="D315" s="47" t="s">
+      <c r="D315" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="E315" s="2">
-        <v>1</v>
-      </c>
-      <c r="F315" s="2">
-        <v>1</v>
-      </c>
-      <c r="G315" s="2">
-        <v>1</v>
-      </c>
-      <c r="H315" s="2"/>
-      <c r="I315" s="48" t="s">
+      <c r="E315" s="16">
+        <v>0</v>
+      </c>
+      <c r="F315" s="16">
+        <v>1</v>
+      </c>
+      <c r="G315" s="16">
+        <v>1</v>
+      </c>
+      <c r="I315" s="14" t="s">
         <v>964</v>
       </c>
     </row>
@@ -13117,13 +13060,13 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="53" t="s">
+      <c r="B316" s="39" t="s">
         <v>950</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>948</v>
       </c>
-      <c r="D316" s="52" t="s">
+      <c r="D316" s="38" t="s">
         <v>947</v>
       </c>
       <c r="E316" s="16">
@@ -13139,53 +13082,49 @@
         <v>672</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" s="16" customFormat="1">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="40" t="s">
+      <c r="B317" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="C317" s="38" t="s">
+      <c r="C317" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="D317" s="39"/>
-      <c r="E317" s="39">
-        <v>1</v>
-      </c>
-      <c r="F317" s="39">
-        <v>1</v>
-      </c>
-      <c r="G317" s="39">
-        <v>1</v>
-      </c>
-      <c r="H317" s="39"/>
-      <c r="I317" s="38" t="s">
+      <c r="E317" s="16">
+        <v>0</v>
+      </c>
+      <c r="F317" s="16">
+        <v>1</v>
+      </c>
+      <c r="G317" s="16">
+        <v>1</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" s="16" customFormat="1">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="40" t="s">
+      <c r="B318" s="17" t="s">
         <v>994</v>
       </c>
-      <c r="C318" s="38" t="s">
+      <c r="C318" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="D318" s="39"/>
-      <c r="E318" s="39">
-        <v>1</v>
-      </c>
-      <c r="F318" s="39">
-        <v>1</v>
-      </c>
-      <c r="G318" s="39">
-        <v>1</v>
-      </c>
-      <c r="H318" s="39"/>
-      <c r="I318" s="38" t="s">
+      <c r="E318" s="16">
+        <v>0</v>
+      </c>
+      <c r="F318" s="16">
+        <v>1</v>
+      </c>
+      <c r="G318" s="16">
+        <v>1</v>
+      </c>
+      <c r="I318" s="14" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13193,24 +13132,22 @@
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="40" t="s">
+      <c r="B319" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="C319" s="39" t="s">
+      <c r="C319" s="16" t="s">
         <v>998</v>
       </c>
-      <c r="D319" s="39"/>
-      <c r="E319" s="39">
-        <v>1</v>
-      </c>
-      <c r="F319" s="39">
-        <v>1</v>
-      </c>
-      <c r="G319" s="39">
-        <v>1</v>
-      </c>
-      <c r="H319" s="39"/>
-      <c r="I319" s="38" t="s">
+      <c r="E319" s="16">
+        <v>0</v>
+      </c>
+      <c r="F319" s="16">
+        <v>1</v>
+      </c>
+      <c r="G319" s="16">
+        <v>1</v>
+      </c>
+      <c r="I319" s="14" t="s">
         <v>993</v>
       </c>
     </row>
@@ -13218,178 +13155,166 @@
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="40" t="s">
+      <c r="B320" s="17" t="s">
         <v>999</v>
       </c>
-      <c r="C320" s="38" t="s">
+      <c r="C320" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="D320" s="39"/>
-      <c r="E320" s="39">
-        <v>1</v>
-      </c>
-      <c r="F320" s="39">
-        <v>1</v>
-      </c>
-      <c r="G320" s="39">
-        <v>1</v>
-      </c>
-      <c r="H320" s="39"/>
-      <c r="I320" s="38" t="s">
+      <c r="E320" s="16">
+        <v>0</v>
+      </c>
+      <c r="F320" s="16">
+        <v>1</v>
+      </c>
+      <c r="G320" s="16">
+        <v>1</v>
+      </c>
+      <c r="I320" s="14" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" s="16" customFormat="1">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="40" t="s">
+      <c r="B321" s="17" t="s">
         <v>1001</v>
       </c>
-      <c r="C321" s="38" t="s">
+      <c r="C321" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="D321" s="39"/>
-      <c r="E321" s="39">
-        <v>1</v>
-      </c>
-      <c r="F321" s="39">
-        <v>1</v>
-      </c>
-      <c r="G321" s="39">
-        <v>1</v>
-      </c>
-      <c r="H321" s="39"/>
-      <c r="I321" s="38" t="s">
+      <c r="E321" s="16">
+        <v>0</v>
+      </c>
+      <c r="F321" s="16">
+        <v>1</v>
+      </c>
+      <c r="G321" s="16">
+        <v>1</v>
+      </c>
+      <c r="I321" s="14" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" s="16" customFormat="1">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="40" t="s">
+      <c r="B322" s="17" t="s">
         <v>1003</v>
       </c>
-      <c r="C322" s="38" t="s">
+      <c r="C322" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="D322" s="39"/>
-      <c r="E322" s="39">
-        <v>1</v>
-      </c>
-      <c r="F322" s="39">
-        <v>1</v>
-      </c>
-      <c r="G322" s="39">
-        <v>1</v>
-      </c>
-      <c r="H322" s="39"/>
-      <c r="I322" s="38" t="s">
+      <c r="E322" s="16">
+        <v>0</v>
+      </c>
+      <c r="F322" s="16">
+        <v>1</v>
+      </c>
+      <c r="G322" s="16">
+        <v>1</v>
+      </c>
+      <c r="I322" s="14" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" s="16" customFormat="1">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="62" t="s">
+      <c r="B323" s="45" t="s">
         <v>1005</v>
       </c>
-      <c r="C323" s="38" t="s">
+      <c r="C323" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="D323" s="39"/>
-      <c r="E323" s="39">
-        <v>1</v>
-      </c>
-      <c r="F323" s="39">
-        <v>1</v>
-      </c>
-      <c r="G323" s="39">
-        <v>1</v>
-      </c>
-      <c r="H323" s="39"/>
-      <c r="I323" s="63" t="s">
+      <c r="E323" s="16">
+        <v>0</v>
+      </c>
+      <c r="F323" s="16">
+        <v>1</v>
+      </c>
+      <c r="G323" s="16">
+        <v>1</v>
+      </c>
+      <c r="I323" s="18" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" s="16" customFormat="1">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="47" t="s">
+      <c r="B324" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="C324" s="48" t="s">
+      <c r="C324" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="D324" s="47" t="s">
+      <c r="D324" s="17" t="s">
         <v>963</v>
       </c>
-      <c r="E324" s="2">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2">
-        <v>1</v>
-      </c>
-      <c r="G324" s="2">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2"/>
-      <c r="I324" s="48" t="s">
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>1</v>
+      </c>
+      <c r="G324" s="16">
+        <v>1</v>
+      </c>
+      <c r="I324" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" s="16" customFormat="1">
       <c r="A325" s="15">
         <v>324</v>
       </c>
-      <c r="B325" s="47" t="s">
+      <c r="B325" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="C325" s="48" t="s">
+      <c r="C325" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="D325" s="47" t="s">
+      <c r="D325" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="E325" s="2">
-        <v>1</v>
-      </c>
-      <c r="F325" s="2">
-        <v>1</v>
-      </c>
-      <c r="G325" s="2">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2"/>
-      <c r="I325" s="48" t="s">
+      <c r="E325" s="16">
+        <v>0</v>
+      </c>
+      <c r="F325" s="16">
+        <v>1</v>
+      </c>
+      <c r="G325" s="16">
+        <v>1</v>
+      </c>
+      <c r="I325" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" s="16" customFormat="1">
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="47" t="s">
+      <c r="B326" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="C326" s="48" t="s">
+      <c r="C326" s="14" t="s">
         <v>969</v>
       </c>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2">
-        <v>1</v>
-      </c>
-      <c r="F326" s="2">
-        <v>1</v>
-      </c>
-      <c r="G326" s="2">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2"/>
-      <c r="I326" s="48" t="s">
+      <c r="E326" s="16">
+        <v>0</v>
+      </c>
+      <c r="F326" s="16">
+        <v>1</v>
+      </c>
+      <c r="G326" s="16">
+        <v>1</v>
+      </c>
+      <c r="I326" s="14" t="s">
         <v>964</v>
       </c>
     </row>
@@ -13397,306 +13322,354 @@
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="61" t="s">
+      <c r="B327" s="26" t="s">
         <v>971</v>
       </c>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2">
-        <v>1</v>
-      </c>
-      <c r="F327" s="2">
-        <v>1</v>
-      </c>
-      <c r="G327" s="2">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2"/>
-      <c r="I327" s="49" t="s">
+      <c r="E327" s="16">
+        <v>1</v>
+      </c>
+      <c r="F327" s="16">
+        <v>1</v>
+      </c>
+      <c r="G327" s="16">
+        <v>1</v>
+      </c>
+      <c r="I327" s="18" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" s="16" customFormat="1">
       <c r="A328" s="15">
         <v>327</v>
       </c>
-      <c r="B328" s="47" t="s">
+      <c r="B328" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="C328" s="47" t="s">
+      <c r="C328" s="17" t="s">
         <v>973</v>
       </c>
-      <c r="D328" s="47" t="s">
+      <c r="D328" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="E328" s="2">
-        <v>1</v>
-      </c>
-      <c r="F328" s="2">
-        <v>1</v>
-      </c>
-      <c r="G328" s="2">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2"/>
-      <c r="I328" s="48" t="s">
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>1</v>
+      </c>
+      <c r="G328" s="16">
+        <v>1</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" s="16" customFormat="1">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="47" t="s">
+      <c r="B329" s="17" t="s">
         <v>984</v>
       </c>
-      <c r="C329" s="49" t="s">
+      <c r="C329" s="18" t="s">
         <v>987</v>
       </c>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2">
-        <v>1</v>
-      </c>
-      <c r="F329" s="2">
-        <v>1</v>
-      </c>
-      <c r="G329" s="2">
-        <v>1</v>
-      </c>
-      <c r="H329" s="2"/>
-      <c r="I329" s="48" t="s">
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" s="16" customFormat="1">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="47" t="s">
+      <c r="B330" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="C330" s="49" t="s">
+      <c r="C330" s="18" t="s">
         <v>988</v>
       </c>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2">
-        <v>1</v>
-      </c>
-      <c r="F330" s="2">
-        <v>1</v>
-      </c>
-      <c r="G330" s="2">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2"/>
-      <c r="I330" s="48" t="s">
+      <c r="E330" s="16">
+        <v>0</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" s="16" customFormat="1">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="47" t="s">
+      <c r="B331" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="C331" s="49" t="s">
+      <c r="C331" s="18" t="s">
         <v>989</v>
       </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2">
-        <v>1</v>
-      </c>
-      <c r="F331" s="2">
-        <v>1</v>
-      </c>
-      <c r="G331" s="2">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2"/>
-      <c r="I331" s="48" t="s">
+      <c r="E331" s="16">
+        <v>0</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" s="16" customFormat="1">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="47" t="s">
+      <c r="B332" s="17" t="s">
         <v>1012</v>
       </c>
-      <c r="C332" s="49" t="s">
+      <c r="C332" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="D332" s="47" t="s">
+      <c r="D332" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="E332" s="2">
-        <v>1</v>
-      </c>
-      <c r="F332" s="2">
-        <v>1</v>
-      </c>
-      <c r="G332" s="2">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2"/>
-      <c r="I332" s="48" t="s">
+      <c r="E332" s="16">
+        <v>0</v>
+      </c>
+      <c r="F332" s="16">
+        <v>1</v>
+      </c>
+      <c r="G332" s="16">
+        <v>1</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" s="16" customFormat="1">
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="65" t="s">
+      <c r="B333" s="17" t="s">
         <v>1009</v>
       </c>
-      <c r="C333" s="66" t="s">
+      <c r="C333" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="D333" s="65" t="s">
+      <c r="D333" s="17" t="s">
         <v>1010</v>
       </c>
-      <c r="E333" s="67">
-        <v>1</v>
-      </c>
-      <c r="F333" s="67">
-        <v>1</v>
-      </c>
-      <c r="G333" s="67">
-        <v>1</v>
-      </c>
-      <c r="H333" s="67"/>
-      <c r="I333" s="68" t="s">
+      <c r="E333" s="16">
+        <v>0</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" s="16" customFormat="1">
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="47" t="s">
+      <c r="B334" s="17" t="s">
         <v>1015</v>
       </c>
-      <c r="C334" s="48" t="s">
+      <c r="C334" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2">
-        <v>1</v>
-      </c>
-      <c r="F334" s="2">
-        <v>1</v>
-      </c>
-      <c r="G334" s="2">
-        <v>1</v>
-      </c>
-      <c r="H334" s="2"/>
-      <c r="I334" s="48" t="s">
+      <c r="E334" s="16">
+        <v>0</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" s="16" customFormat="1">
       <c r="A335" s="15">
         <v>334</v>
       </c>
-      <c r="B335" s="47" t="s">
+      <c r="B335" s="17" t="s">
         <v>1016</v>
       </c>
-      <c r="C335" s="48" t="s">
+      <c r="C335" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2">
-        <v>1</v>
-      </c>
-      <c r="F335" s="2">
-        <v>1</v>
-      </c>
-      <c r="G335" s="2">
-        <v>1</v>
-      </c>
-      <c r="H335" s="2"/>
-      <c r="I335" s="48" t="s">
+      <c r="E335" s="16">
+        <v>0</v>
+      </c>
+      <c r="F335" s="16">
+        <v>1</v>
+      </c>
+      <c r="G335" s="16">
+        <v>1</v>
+      </c>
+      <c r="I335" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" s="16" customFormat="1">
       <c r="A336" s="15">
         <v>335</v>
       </c>
-      <c r="B336" s="47" t="s">
+      <c r="B336" s="17" t="s">
         <v>1026</v>
       </c>
-      <c r="C336" s="48" t="s">
+      <c r="C336" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2">
-        <v>1</v>
-      </c>
-      <c r="F336" s="2">
-        <v>1</v>
-      </c>
-      <c r="G336" s="2">
-        <v>1</v>
-      </c>
-      <c r="H336" s="2"/>
-      <c r="I336" s="48" t="s">
+      <c r="E336" s="16">
+        <v>0</v>
+      </c>
+      <c r="F336" s="16">
+        <v>1</v>
+      </c>
+      <c r="G336" s="16">
+        <v>1</v>
+      </c>
+      <c r="I336" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" s="16" customFormat="1">
       <c r="A337" s="15">
         <v>336</v>
       </c>
-      <c r="B337" s="47" t="s">
+      <c r="B337" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="C337" s="48" t="s">
+      <c r="C337" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2">
-        <v>1</v>
-      </c>
-      <c r="F337" s="2">
-        <v>1</v>
-      </c>
-      <c r="G337" s="2">
-        <v>1</v>
-      </c>
-      <c r="H337" s="2"/>
-      <c r="I337" s="48" t="s">
+      <c r="E337" s="16">
+        <v>0</v>
+      </c>
+      <c r="F337" s="16">
+        <v>1</v>
+      </c>
+      <c r="G337" s="16">
+        <v>1</v>
+      </c>
+      <c r="I337" s="14" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" s="16" customFormat="1">
       <c r="A338" s="15">
         <v>337</v>
       </c>
-      <c r="B338" s="61" t="s">
+      <c r="B338" s="26" t="s">
         <v>1022</v>
       </c>
-      <c r="C338" s="48" t="s">
+      <c r="C338" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="D338" s="48" t="s">
+      <c r="D338" s="14" t="s">
         <v>1020</v>
       </c>
-      <c r="E338" s="2">
-        <v>1</v>
-      </c>
-      <c r="F338" s="2">
-        <v>1</v>
-      </c>
-      <c r="G338" s="2">
-        <v>1</v>
-      </c>
-      <c r="H338" s="2"/>
-      <c r="I338" s="48" t="s">
+      <c r="E338" s="16">
+        <v>0</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1021</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" s="49" customFormat="1">
+      <c r="A339" s="15">
+        <v>338</v>
+      </c>
+      <c r="B339" s="47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C339" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E339" s="49">
+        <v>1</v>
+      </c>
+      <c r="F339" s="49">
+        <v>1</v>
+      </c>
+      <c r="G339" s="49">
+        <v>1</v>
+      </c>
+      <c r="I339" s="48" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" s="49" customFormat="1">
+      <c r="A340" s="15">
+        <v>339</v>
+      </c>
+      <c r="B340" s="47" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C340" s="48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E340" s="49">
+        <v>1</v>
+      </c>
+      <c r="F340" s="49">
+        <v>1</v>
+      </c>
+      <c r="G340" s="49">
+        <v>1</v>
+      </c>
+      <c r="I340" s="48" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" s="49" customFormat="1">
+      <c r="A341" s="15">
+        <v>340</v>
+      </c>
+      <c r="B341" s="47" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C341" s="50" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E341" s="49">
+        <v>1</v>
+      </c>
+      <c r="F341" s="49">
+        <v>1</v>
+      </c>
+      <c r="G341" s="49">
+        <v>1</v>
+      </c>
+      <c r="I341" s="48" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
